--- a/testing-vertigis/ReportOutPlanning.xlsx
+++ b/testing-vertigis/ReportOutPlanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dconly\GitRepos\PPA3\testing-vertigis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B3A44D-DB01-4E5A-A953-37B889734BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EAEFC9-D6D1-43CE-9A36-DDA6A625B576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="RosterGuide" sheetId="5" r:id="rId2"/>
     <sheet name="GPServiceResourceRoster" sheetId="3" r:id="rId3"/>
     <sheet name="ChartRoster" sheetId="4" r:id="rId4"/>
+    <sheet name="check" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ChartRoster!$A$1:$F$31</definedName>
@@ -33,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="181">
   <si>
     <t>Program</t>
   </si>
@@ -473,13 +473,142 @@
   </si>
   <si>
     <t>The chart roster is meant to identify all unique charts used in all subreport templates. It helps identify charts that are reused in multiple reports, and knowing this can help with packaging chart-making code into reusable functions.</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_Multimodal_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_Title_and_Guide_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_EconProsperity_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yongzhi Comments: Discuss with Darren, should we use the same data source as RP_ARTEXP_CONG? The extra data will not be used when generate the report. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yongzhi Comments: Discuss with Darren, should we use the same data source as RP_ARTEXP_ECON? The extra data will not be used when generate the report. </t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_Freight_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yongzhi Comments: Discuss with Darren, should we use the same data source as RP_ARTEXP_FRGT? The extra data will not be used when generate the report. </t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_Safety_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_SGR_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>Yongzhi Comments: Discuss with Darren, confirm data source only has PCI and AADT value</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_or_Transit_Expasion}_Equity_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_SGR}_ReduceCongestion_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_SGR}_EconProsperity_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_SGR}_Freight_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Arterial_SGR}_SGR_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Freeway}_ReduceVMT_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Freeway}_ReduceCongestion_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Freeway}_Multimodal_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Freeway}_EconProsperity_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Freeway}_Freight_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>SACOG_{Regional Program}_{Freeway}_Safety_sample_dataSource.json</t>
+  </si>
+  <si>
+    <t>Community Design Program</t>
+  </si>
+  <si>
+    <t>CommDesign</t>
+  </si>
+  <si>
+    <t>TransportationChoice</t>
+  </si>
+  <si>
+    <t>CD_TRNCHOICE</t>
+  </si>
+  <si>
+    <t>CompactDev</t>
+  </si>
+  <si>
+    <t>CD_COMPACTDEV</t>
+  </si>
+  <si>
+    <t>MixedUse</t>
+  </si>
+  <si>
+    <t>CD_MIXEDUSE</t>
+  </si>
+  <si>
+    <t>HousingChoice</t>
+  </si>
+  <si>
+    <t>CD_HOUSCHOICE</t>
+  </si>
+  <si>
+    <t>ExistingAssets</t>
+  </si>
+  <si>
+    <t>CD_EXISTGASSET</t>
+  </si>
+  <si>
+    <t>NaturePreservation</t>
+  </si>
+  <si>
+    <t>CD_NATURPRES</t>
+  </si>
+  <si>
+    <t>tbd as of 2/24/2022</t>
+  </si>
+  <si>
+    <t>ModeSplit</t>
+  </si>
+  <si>
+    <t>Travel modes</t>
+  </si>
+  <si>
+    <t>HousingTypes</t>
+  </si>
+  <si>
+    <t>Housing Types</t>
+  </si>
+  <si>
+    <t>InfillStatus</t>
+  </si>
+  <si>
+    <t>NaturalResourceArea</t>
+  </si>
+  <si>
+    <t>Simple bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,12 +630,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -531,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -539,12 +662,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -555,21 +778,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1525,10 +1771,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A2:B22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,139 +1783,145 @@
     <col min="2" max="2" width="49.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="17" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="21" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1687,12 +1939,12 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I34" sqref="I34"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1953,7 @@
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="72" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
@@ -1742,6 +1994,9 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
       <c r="H2" t="s">
         <v>63</v>
       </c>
@@ -1762,6 +2017,9 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1783,7 +2041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1799,6 +2057,8 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1813,6 +2073,9 @@
       <c r="D6" t="s">
         <v>76</v>
       </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1827,6 +2090,9 @@
       <c r="D7" t="s">
         <v>79</v>
       </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1841,6 +2107,9 @@
       <c r="D8" t="s">
         <v>88</v>
       </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1855,6 +2124,9 @@
       <c r="D9" t="s">
         <v>96</v>
       </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1869,6 +2141,12 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1883,6 +2161,9 @@
       <c r="D11" t="s">
         <v>106</v>
       </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1897,6 +2178,9 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1911,6 +2195,9 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1925,6 +2212,9 @@
       <c r="D14" t="s">
         <v>110</v>
       </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1939,6 +2229,9 @@
       <c r="D15" t="s">
         <v>109</v>
       </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1953,6 +2246,9 @@
       <c r="D16" t="s">
         <v>111</v>
       </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1967,6 +2263,9 @@
       <c r="D17" t="s">
         <v>112</v>
       </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1981,6 +2280,9 @@
       <c r="D18" t="s">
         <v>113</v>
       </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
       <c r="J18">
         <f>7644*12</f>
         <v>91728</v>
@@ -1999,7 +2301,10 @@
       <c r="D19" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2014,6 +2319,9 @@
       <c r="D20" t="s">
         <v>24</v>
       </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2028,6 +2336,9 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2059,8 +2370,14 @@
       <c r="D23" t="s">
         <v>62</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2076,6 +2393,9 @@
       <c r="D24" t="s">
         <v>76</v>
       </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2090,8 +2410,14 @@
       <c r="D25" t="s">
         <v>80</v>
       </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2107,8 +2433,14 @@
       <c r="D26" t="s">
         <v>89</v>
       </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2124,6 +2456,9 @@
       <c r="D27" t="s">
         <v>96</v>
       </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2138,6 +2473,9 @@
       <c r="D28" t="s">
         <v>103</v>
       </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2151,6 +2489,111 @@
       </c>
       <c r="D29" t="s">
         <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2163,12 +2606,12 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I34" sqref="I34"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,9 +3881,262 @@
         <v>58</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F31" xr:uid="{62524B0A-320E-454A-8CBA-DBFB99CA201A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F1FA40-E1A9-4AB1-A566-F40AFE2B5BCA}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A2:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>